--- a/results/results_formatted/evaluation_lineFollowing20_run3_formatted.xlsx
+++ b/results/results_formatted/evaluation_lineFollowing20_run3_formatted.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Desktop\bro usb n papa\results (line following)\editted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaZa\Music\APP-RAS paper results\analysis\results (line following)\formatted\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646099A-0595-47CE-BE4B-C56648EE6598}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_lineFollowing20_run3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="29">
   <si>
     <t>charging</t>
   </si>
@@ -92,11 +101,26 @@
   <si>
     <t>Final Battery level (battery when task finished)</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Waiting Time</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +437,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +559,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,9 +619,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,29 +948,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105:H105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,7 +1011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1043,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1075,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1107,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1139,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1129,7 +1180,7 @@
         <v>47.29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1221,7 @@
         <v>52.78</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1211,7 +1262,7 @@
         <v>37.950000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1303,7 @@
         <v>46.94</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1344,7 @@
         <v>47.43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1385,7 @@
         <v>40.86</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1426,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1458,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1490,7 @@
         <v>21.55</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +1531,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1563,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1553,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1645,7 @@
         <v>64.25</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1686,7 @@
         <v>66.19</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1718,7 @@
         <v>28.45</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1699,7 +1750,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1740,7 +1791,7 @@
         <v>58.91</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1781,7 +1832,7 @@
         <v>69.77</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1822,7 +1873,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1863,7 +1914,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1904,7 +1955,7 @@
         <v>24.71</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1987,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1977,7 +2028,7 @@
         <v>49.07</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2018,7 +2069,7 @@
         <v>34.79</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2110,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2192,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2224,7 @@
         <v>31.07</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +2265,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2297,7 @@
         <v>29.15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2329,7 @@
         <v>30.65</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2361,7 @@
         <v>27.55</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2351,7 +2402,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -2392,7 +2443,7 @@
         <v>58.55</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -2433,7 +2484,7 @@
         <v>54.69</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2465,7 +2516,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2506,7 +2557,7 @@
         <v>82.51</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2547,7 +2598,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2588,7 +2639,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2680,7 @@
         <v>17.97</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2721,7 @@
         <v>44.07</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2711,7 +2762,7 @@
         <v>59.29</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -2752,7 +2803,7 @@
         <v>39.869999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2835,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2867,7 @@
         <v>27.05</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2848,7 +2899,7 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2889,7 +2940,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2930,7 +2981,7 @@
         <v>22.27</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +3013,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -3003,7 +3054,7 @@
         <v>52.53</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3035,7 +3086,7 @@
         <v>24.65</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -3076,7 +3127,7 @@
         <v>53.61</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -3117,7 +3168,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -3158,7 +3209,7 @@
         <v>68.64</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -3199,7 +3250,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -3240,7 +3291,7 @@
         <v>70.05</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -3281,7 +3332,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -3322,7 +3373,7 @@
         <v>33.53</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +3405,7 @@
         <v>27.05</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -3386,7 +3437,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -3427,7 +3478,7 @@
         <v>40.43</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -3468,7 +3519,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -3509,7 +3560,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3541,7 +3592,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -3582,7 +3633,7 @@
         <v>67.66</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -3614,7 +3665,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -3646,7 +3697,7 @@
         <v>22.45</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -3687,7 +3738,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -3728,7 +3779,7 @@
         <v>68.58</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -3769,7 +3820,7 @@
         <v>24.92</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -3810,7 +3861,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -3851,7 +3902,7 @@
         <v>71.67</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -3892,7 +3943,7 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -3924,7 +3975,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +4007,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -3997,7 +4048,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -4038,7 +4089,7 @@
         <v>24.03</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -4079,7 +4130,7 @@
         <v>30.56</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -4120,7 +4171,7 @@
         <v>42.99</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -4152,7 +4203,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -4193,7 +4244,7 @@
         <v>64.38</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -4234,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -4266,7 +4317,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -4298,7 +4349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -4339,7 +4390,7 @@
         <v>46.48</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -4380,7 +4431,7 @@
         <v>80.459999999999994</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -4421,7 +4472,7 @@
         <v>65.510000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>10</v>
       </c>
@@ -4432,7 +4483,7 @@
         <v>104.85</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
@@ -4443,7 +4494,7 @@
         <v>37.409999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
@@ -4454,7 +4505,7 @@
         <v>455.24</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
@@ -4465,7 +4516,7 @@
         <v>453.23</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
@@ -4476,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>10</v>
       </c>
@@ -4487,7 +4538,7 @@
         <v>428.28</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
@@ -4498,7 +4549,7 @@
         <v>235.45</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
@@ -4507,6 +4558,54 @@
       </c>
       <c r="C100">
         <v>320.02</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="3">
+        <f>COUNTIF(A2:A92,"transportation")</f>
+        <v>61</v>
+      </c>
+      <c r="G104" s="3">
+        <f>AVERAGEIF(A2:A92,"transportation",F2:F92)</f>
+        <v>136.62327868852461</v>
+      </c>
+      <c r="H104" s="3">
+        <f>AVERAGEIF(A2:A92,"transportation",H2:H92)</f>
+        <v>64.449836065573791</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E105" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="3">
+        <f>COUNTIF(A2:A92,"charging")</f>
+        <v>30</v>
+      </c>
+      <c r="G105" s="3">
+        <f>AVERAGEIF(A2:A92,"charging",F2:F92)</f>
+        <v>45.218000000000004</v>
+      </c>
+      <c r="H105" s="3">
+        <f>AVERAGEIF(A2:A92,"charging",H2:H92)</f>
+        <v>0.28633333333333333</v>
       </c>
     </row>
   </sheetData>
